--- a/module/user/admin/user_list_excel.xlsx
+++ b/module/user/admin/user_list_excel.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\alphaedu-lms\www\module\user\admin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workspace\php\alrimkok\module\user\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E93DCBC-4CED-4C3D-89A5-43D85CBD35BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="12435" yWindow="2295" windowWidth="22815" windowHeight="18165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="회원리스트" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -47,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>생년월일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이메일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,34 +50,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>본인인증여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자 비수신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>등록일</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림수신</t>
+  </si>
+  <si>
+    <t>담당자명</t>
+  </si>
+  <si>
+    <t>부서</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -94,7 +86,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -102,18 +94,24 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -184,32 +182,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -230,9 +225,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -270,9 +265,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,7 +302,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,7 +337,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -515,108 +510,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="30" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="21.375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12" style="2" customWidth="1"/>
-    <col min="12" max="12" width="16.125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:18" ht="16.5" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
+    <row r="2" spans="1:18">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="18">
+    <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="J1:J2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
@@ -631,30 +620,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>